--- a/GridSearchResults/Hyperparameters_NTSK-RLS_Lorenz.xlsx
+++ b/GridSearchResults/Hyperparameters_NTSK-RLS_Lorenz.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>n_clusters</t>
+          <t>rules</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>RLS_option</t>
+          <t>adaptive_filter</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -490,17 +490,19 @@
       <c r="D2" t="n">
         <v>0.8</v>
       </c>
-      <c r="E2" t="n">
-        <v>1</v>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>RLS</t>
+        </is>
       </c>
       <c r="F2" t="n">
-        <v>5.972074563560083e-14</v>
+        <v>4.714301534104477e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>7.29523688719888e-15</v>
+        <v>5.758793880241753e-15</v>
       </c>
       <c r="H2" t="n">
-        <v>3.725872214921377e-14</v>
+        <v>3.543533695637979e-14</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
@@ -521,17 +523,19 @@
       <c r="D3" t="n">
         <v>0.9</v>
       </c>
-      <c r="E3" t="n">
-        <v>1</v>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>RLS</t>
+        </is>
       </c>
       <c r="F3" t="n">
-        <v>8.659909043225379e-15</v>
+        <v>1.12536913539333e-14</v>
       </c>
       <c r="G3" t="n">
-        <v>1.057858324097419e-15</v>
+        <v>1.374703939286129e-15</v>
       </c>
       <c r="H3" t="n">
-        <v>7.552085692918986e-15</v>
+        <v>8.907168405625221e-15</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
@@ -552,17 +556,19 @@
       <c r="D4" t="n">
         <v>0.91</v>
       </c>
-      <c r="E4" t="n">
-        <v>1</v>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>RLS</t>
+        </is>
       </c>
       <c r="F4" t="n">
-        <v>5.369754200728071e-15</v>
+        <v>1.087463607170333e-14</v>
       </c>
       <c r="G4" t="n">
-        <v>6.559467485447857e-16</v>
+        <v>1.328400128980666e-15</v>
       </c>
       <c r="H4" t="n">
-        <v>4.26690453803058e-15</v>
+        <v>9.715101986773611e-15</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
@@ -583,17 +589,19 @@
       <c r="D5" t="n">
         <v>0.92</v>
       </c>
-      <c r="E5" t="n">
-        <v>1</v>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>RLS</t>
+        </is>
       </c>
       <c r="F5" t="n">
-        <v>8.299116112902323e-15</v>
+        <v>1.005715688141166e-14</v>
       </c>
       <c r="G5" t="n">
-        <v>1.013785366435546e-15</v>
+        <v>1.228540284967295e-15</v>
       </c>
       <c r="H5" t="n">
-        <v>6.600513538512764e-15</v>
+        <v>7.926785963729976e-15</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
@@ -614,17 +622,19 @@
       <c r="D6" t="n">
         <v>0.93</v>
       </c>
-      <c r="E6" t="n">
-        <v>1</v>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>RLS</t>
+        </is>
       </c>
       <c r="F6" t="n">
-        <v>1.208127406169279e-14</v>
+        <v>5.865903277367848e-15</v>
       </c>
       <c r="G6" t="n">
-        <v>1.475797986800095e-15</v>
+        <v>7.165542477802689e-16</v>
       </c>
       <c r="H6" t="n">
-        <v>1.141788226466378e-14</v>
+        <v>4.557647662051245e-15</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
@@ -645,17 +655,19 @@
       <c r="D7" t="n">
         <v>0.9399999999999999</v>
       </c>
-      <c r="E7" t="n">
-        <v>1</v>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>RLS</t>
+        </is>
       </c>
       <c r="F7" t="n">
-        <v>2.756222801366828e-15</v>
+        <v>5.606910118278322e-15</v>
       </c>
       <c r="G7" t="n">
-        <v>3.366886671603028e-16</v>
+        <v>6.849167250465314e-16</v>
       </c>
       <c r="H7" t="n">
-        <v>2.040310628781406e-15</v>
+        <v>4.675799678000025e-15</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
@@ -676,17 +688,19 @@
       <c r="D8" t="n">
         <v>0.95</v>
       </c>
-      <c r="E8" t="n">
-        <v>1</v>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>RLS</t>
+        </is>
       </c>
       <c r="F8" t="n">
-        <v>7.651877735374988e-15</v>
+        <v>1.318412360474831e-14</v>
       </c>
       <c r="G8" t="n">
-        <v>9.347214291672639e-16</v>
+        <v>1.610517481372731e-15</v>
       </c>
       <c r="H8" t="n">
-        <v>6.466492272205748e-15</v>
+        <v>1.129639264074722e-14</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
@@ -707,17 +721,19 @@
       <c r="D9" t="n">
         <v>0.96</v>
       </c>
-      <c r="E9" t="n">
-        <v>1</v>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>RLS</t>
+        </is>
       </c>
       <c r="F9" t="n">
-        <v>1.111127944292698e-14</v>
+        <v>5.458280528191767e-15</v>
       </c>
       <c r="G9" t="n">
-        <v>1.357307494963597e-15</v>
+        <v>6.667607550131915e-16</v>
       </c>
       <c r="H9" t="n">
-        <v>1.075105109105134e-14</v>
+        <v>4.378582565967015e-15</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
@@ -738,17 +754,19 @@
       <c r="D10" t="n">
         <v>0.97</v>
       </c>
-      <c r="E10" t="n">
-        <v>1</v>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>RLS</t>
+        </is>
       </c>
       <c r="F10" t="n">
-        <v>1.878746111271931e-14</v>
+        <v>5.15702267032874e-15</v>
       </c>
       <c r="G10" t="n">
-        <v>2.294997791263688e-15</v>
+        <v>6.299603531787785e-16</v>
       </c>
       <c r="H10" t="n">
-        <v>1.707624493196835e-14</v>
+        <v>3.644836168992249e-15</v>
       </c>
       <c r="I10" t="n">
         <v>1</v>
@@ -769,17 +787,19 @@
       <c r="D11" t="n">
         <v>0.98</v>
       </c>
-      <c r="E11" t="n">
-        <v>1</v>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>RLS</t>
+        </is>
       </c>
       <c r="F11" t="n">
-        <v>1.338610729329032e-14</v>
+        <v>1.687181030391637e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>1.635190965261481e-15</v>
+        <v>2.06098988840454e-15</v>
       </c>
       <c r="H11" t="n">
-        <v>1.198639625055176e-14</v>
+        <v>1.477405524308306e-14</v>
       </c>
       <c r="I11" t="n">
         <v>1</v>
@@ -800,17 +820,19 @@
       <c r="D12" t="n">
         <v>0.99</v>
       </c>
-      <c r="E12" t="n">
-        <v>1</v>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>RLS</t>
+        </is>
       </c>
       <c r="F12" t="n">
-        <v>2.91757948166592e-14</v>
+        <v>1.565610876326842e-14</v>
       </c>
       <c r="G12" t="n">
-        <v>3.56399325384439e-15</v>
+        <v>1.912484865086938e-15</v>
       </c>
       <c r="H12" t="n">
-        <v>2.82306556603773e-14</v>
+        <v>1.47312318593551e-14</v>
       </c>
       <c r="I12" t="n">
         <v>1</v>
@@ -831,17 +853,19 @@
       <c r="D13" t="n">
         <v>1</v>
       </c>
-      <c r="E13" t="n">
-        <v>1</v>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>RLS</t>
+        </is>
       </c>
       <c r="F13" t="n">
-        <v>3.952490734002593e-05</v>
+        <v>3.952490733747522e-05</v>
       </c>
       <c r="G13" t="n">
-        <v>4.82819762079774e-06</v>
+        <v>4.828197620486155e-06</v>
       </c>
       <c r="H13" t="n">
-        <v>2.950236823029768e-05</v>
+        <v>2.950236822960124e-05</v>
       </c>
       <c r="I13" t="n">
         <v>1</v>
